--- a/code/Hae.xlsx
+++ b/code/Hae.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\github\Digital_Watermarking-LSB-pair\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\github\Digital_Watermarking-LSB-pair\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{B1166A8C-6816-4D3A-AD57-18954EFFB13A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{56F99312-DBF7-4250-A860-74D1F65C7367}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20865" windowHeight="10590" xr2:uid="{C124BF73-661B-4716-ADFD-5926FEDD4A46}"/>
   </bookViews>
@@ -28,18 +28,23 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Image Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LSB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LSB-DES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LSB-pair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LSB-pair1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>

--- a/code/Hae.xlsx
+++ b/code/Hae.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\github\Digital_Watermarking-LSB-pair\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{56F99312-DBF7-4250-A860-74D1F65C7367}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{14D371DA-D2F6-4B3D-A836-5324EDC86D10}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20865" windowHeight="10590" xr2:uid="{C124BF73-661B-4716-ADFD-5926FEDD4A46}"/>
   </bookViews>
@@ -35,15 +35,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LSB-DES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LSB-pair</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LSB-pair1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSB-pair_new</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -100,74 +100,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -184,10 +116,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="004040"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="D1E2D6"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -476,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29E1C5AE-7E93-428E-85E2-91DCE29176D8}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E51"/>
+      <selection activeCell="B2" sqref="B2:D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -492,13 +424,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -509,7 +441,7 @@
         <v>47386</v>
       </c>
       <c r="C2">
-        <v>14824</v>
+        <v>47386</v>
       </c>
       <c r="D2">
         <v>14520</v>
@@ -526,7 +458,7 @@
         <v>44090</v>
       </c>
       <c r="C3">
-        <v>6226</v>
+        <v>44086</v>
       </c>
       <c r="D3">
         <v>5854</v>
@@ -537,16 +469,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="B4">
-        <v>47064</v>
+        <v>47274</v>
       </c>
       <c r="C4">
-        <v>18040</v>
+        <v>47274</v>
       </c>
       <c r="D4">
-        <v>17276</v>
+        <v>8422</v>
       </c>
       <c r="E4">
         <v>16636</v>
@@ -554,16 +486,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5">
-        <v>44152</v>
+        <v>47064</v>
       </c>
       <c r="C5">
-        <v>9272</v>
+        <v>47064</v>
       </c>
       <c r="D5">
-        <v>8652</v>
+        <v>17276</v>
       </c>
       <c r="E5">
         <v>8280</v>
@@ -571,16 +503,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>41396</v>
+        <v>44152</v>
       </c>
       <c r="C6">
-        <v>6066</v>
+        <v>44152</v>
       </c>
       <c r="D6">
-        <v>5914</v>
+        <v>8652</v>
       </c>
       <c r="E6">
         <v>5478</v>
@@ -588,16 +520,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>25276</v>
+        <v>41396</v>
       </c>
       <c r="C7">
-        <v>26064</v>
+        <v>41392</v>
       </c>
       <c r="D7">
-        <v>26112</v>
+        <v>5914</v>
       </c>
       <c r="E7">
         <v>25704</v>
@@ -605,16 +537,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>42902</v>
+        <v>25276</v>
       </c>
       <c r="C8">
-        <v>5280</v>
+        <v>25524</v>
       </c>
       <c r="D8">
-        <v>4876</v>
+        <v>26112</v>
       </c>
       <c r="E8">
         <v>4416</v>
@@ -622,16 +554,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>41808</v>
+        <v>42902</v>
       </c>
       <c r="C9">
-        <v>10000</v>
+        <v>42902</v>
       </c>
       <c r="D9">
-        <v>9432</v>
+        <v>4876</v>
       </c>
       <c r="E9">
         <v>8728</v>
@@ -639,16 +571,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>52194</v>
+        <v>41808</v>
       </c>
       <c r="C10">
-        <v>23002</v>
+        <v>41808</v>
       </c>
       <c r="D10">
-        <v>22626</v>
+        <v>9432</v>
       </c>
       <c r="E10">
         <v>21898</v>
@@ -656,16 +588,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>55006</v>
+        <v>52194</v>
       </c>
       <c r="C11">
-        <v>18030</v>
+        <v>52194</v>
       </c>
       <c r="D11">
-        <v>17806</v>
+        <v>22626</v>
       </c>
       <c r="E11">
         <v>17298</v>
@@ -673,16 +605,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>48456</v>
+        <v>55006</v>
       </c>
       <c r="C12">
-        <v>12052</v>
+        <v>55006</v>
       </c>
       <c r="D12">
-        <v>11604</v>
+        <v>17806</v>
       </c>
       <c r="E12">
         <v>10828</v>
@@ -690,16 +622,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>27924</v>
+        <v>48456</v>
       </c>
       <c r="C13">
-        <v>42730</v>
+        <v>48456</v>
       </c>
       <c r="D13">
-        <v>42802</v>
+        <v>11604</v>
       </c>
       <c r="E13">
         <v>42546</v>
@@ -707,16 +639,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B14">
-        <v>21808</v>
+        <v>27924</v>
       </c>
       <c r="C14">
-        <v>23938</v>
+        <v>27996</v>
       </c>
       <c r="D14">
-        <v>23926</v>
+        <v>42802</v>
       </c>
       <c r="E14">
         <v>23562</v>
@@ -724,16 +656,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>41820</v>
+        <v>21808</v>
       </c>
       <c r="C15">
-        <v>7350</v>
+        <v>21788</v>
       </c>
       <c r="D15">
-        <v>6970</v>
+        <v>23926</v>
       </c>
       <c r="E15">
         <v>6814</v>
@@ -741,16 +673,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>40198</v>
+        <v>41820</v>
       </c>
       <c r="C16">
-        <v>11846</v>
+        <v>41820</v>
       </c>
       <c r="D16">
-        <v>11262</v>
+        <v>6970</v>
       </c>
       <c r="E16">
         <v>11238</v>
@@ -758,16 +690,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17">
-        <v>43164</v>
+        <v>40198</v>
       </c>
       <c r="C17">
-        <v>9314</v>
+        <v>40198</v>
       </c>
       <c r="D17">
-        <v>8682</v>
+        <v>11262</v>
       </c>
       <c r="E17">
         <v>7522</v>
@@ -775,16 +707,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18">
-        <v>44764</v>
+        <v>43164</v>
       </c>
       <c r="C18">
-        <v>8282</v>
+        <v>43164</v>
       </c>
       <c r="D18">
-        <v>7702</v>
+        <v>8682</v>
       </c>
       <c r="E18">
         <v>7734</v>
@@ -792,16 +724,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>45152</v>
+        <v>44764</v>
       </c>
       <c r="C19">
-        <v>7738</v>
+        <v>44764</v>
       </c>
       <c r="D19">
-        <v>7318</v>
+        <v>7702</v>
       </c>
       <c r="E19">
         <v>6538</v>
@@ -809,16 +741,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>43024</v>
+        <v>45152</v>
       </c>
       <c r="C20">
-        <v>7314</v>
+        <v>45148</v>
       </c>
       <c r="D20">
-        <v>7178</v>
+        <v>7318</v>
       </c>
       <c r="E20">
         <v>6062</v>
@@ -826,16 +758,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>43842</v>
+        <v>43024</v>
       </c>
       <c r="C21">
-        <v>5806</v>
+        <v>43024</v>
       </c>
       <c r="D21">
-        <v>5486</v>
+        <v>7178</v>
       </c>
       <c r="E21">
         <v>4722</v>
@@ -843,16 +775,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>45848</v>
+        <v>43842</v>
       </c>
       <c r="C22">
-        <v>8586</v>
+        <v>43842</v>
       </c>
       <c r="D22">
-        <v>8358</v>
+        <v>5486</v>
       </c>
       <c r="E22">
         <v>7694</v>
@@ -860,16 +792,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>34162</v>
+        <v>45848</v>
       </c>
       <c r="C23">
-        <v>24764</v>
+        <v>45848</v>
       </c>
       <c r="D23">
-        <v>24796</v>
+        <v>8358</v>
       </c>
       <c r="E23">
         <v>24232</v>
@@ -877,16 +809,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>42168</v>
+        <v>34162</v>
       </c>
       <c r="C24">
-        <v>11516</v>
+        <v>34338</v>
       </c>
       <c r="D24">
-        <v>11368</v>
+        <v>24796</v>
       </c>
       <c r="E24">
         <v>11196</v>
@@ -894,16 +826,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B25">
-        <v>43142</v>
+        <v>42168</v>
       </c>
       <c r="C25">
-        <v>6968</v>
+        <v>42168</v>
       </c>
       <c r="D25">
-        <v>6652</v>
+        <v>11368</v>
       </c>
       <c r="E25">
         <v>6484</v>
@@ -911,16 +843,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>42988</v>
+        <v>43142</v>
       </c>
       <c r="C26">
-        <v>5090</v>
+        <v>43142</v>
       </c>
       <c r="D26">
-        <v>5106</v>
+        <v>6652</v>
       </c>
       <c r="E26">
         <v>4346</v>
@@ -928,16 +860,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27">
-        <v>44382</v>
+        <v>42988</v>
       </c>
       <c r="C27">
-        <v>9210</v>
+        <v>42988</v>
       </c>
       <c r="D27">
-        <v>8890</v>
+        <v>5106</v>
       </c>
       <c r="E27">
         <v>7954</v>
@@ -945,16 +877,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>36372</v>
+        <v>44382</v>
       </c>
       <c r="C28">
-        <v>17832</v>
+        <v>44382</v>
       </c>
       <c r="D28">
-        <v>17772</v>
+        <v>8890</v>
       </c>
       <c r="E28">
         <v>17264</v>
@@ -962,16 +894,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>45382</v>
+        <v>36372</v>
       </c>
       <c r="C29">
-        <v>8782</v>
+        <v>36504</v>
       </c>
       <c r="D29">
-        <v>7674</v>
+        <v>17772</v>
       </c>
       <c r="E29">
         <v>7378</v>
@@ -979,16 +911,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>37270</v>
+        <v>45382</v>
       </c>
       <c r="C30">
-        <v>10498</v>
+        <v>45382</v>
       </c>
       <c r="D30">
-        <v>9742</v>
+        <v>7674</v>
       </c>
       <c r="E30">
         <v>9542</v>
@@ -996,16 +928,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>43858</v>
+        <v>37270</v>
       </c>
       <c r="C31">
-        <v>12274</v>
+        <v>37082</v>
       </c>
       <c r="D31">
-        <v>11318</v>
+        <v>9742</v>
       </c>
       <c r="E31">
         <v>10474</v>
@@ -1013,16 +945,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>39150</v>
+        <v>43858</v>
       </c>
       <c r="C32">
-        <v>29498</v>
+        <v>43858</v>
       </c>
       <c r="D32">
-        <v>28866</v>
+        <v>11318</v>
       </c>
       <c r="E32">
         <v>28630</v>
@@ -1030,16 +962,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>47016</v>
+        <v>39150</v>
       </c>
       <c r="C33">
-        <v>25006</v>
+        <v>39054</v>
       </c>
       <c r="D33">
-        <v>24258</v>
+        <v>28866</v>
       </c>
       <c r="E33">
         <v>23706</v>
@@ -1047,16 +979,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>20342</v>
+        <v>47016</v>
       </c>
       <c r="C34">
-        <v>25166</v>
+        <v>47016</v>
       </c>
       <c r="D34">
-        <v>25162</v>
+        <v>24258</v>
       </c>
       <c r="E34">
         <v>24990</v>
@@ -1064,16 +996,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>62634</v>
+        <v>20342</v>
       </c>
       <c r="C35">
-        <v>42144</v>
+        <v>20330</v>
       </c>
       <c r="D35">
-        <v>41408</v>
+        <v>25162</v>
       </c>
       <c r="E35">
         <v>41424</v>
@@ -1081,16 +1013,16 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="B36">
-        <v>54428</v>
+        <v>62634</v>
       </c>
       <c r="C36">
-        <v>23082</v>
+        <v>62410</v>
       </c>
       <c r="D36">
-        <v>21970</v>
+        <v>41408</v>
       </c>
       <c r="E36">
         <v>21542</v>
@@ -1098,16 +1030,16 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>49324</v>
+        <v>54428</v>
       </c>
       <c r="C37">
-        <v>15124</v>
+        <v>54428</v>
       </c>
       <c r="D37">
-        <v>14556</v>
+        <v>21970</v>
       </c>
       <c r="E37">
         <v>13900</v>
@@ -1115,16 +1047,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>44556</v>
+        <v>49324</v>
       </c>
       <c r="C38">
-        <v>15958</v>
+        <v>49316</v>
       </c>
       <c r="D38">
-        <v>15146</v>
+        <v>14556</v>
       </c>
       <c r="E38">
         <v>14898</v>
@@ -1132,16 +1064,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>47892</v>
+        <v>44556</v>
       </c>
       <c r="C39">
-        <v>27356</v>
+        <v>44556</v>
       </c>
       <c r="D39">
-        <v>26872</v>
+        <v>15146</v>
       </c>
       <c r="E39">
         <v>25736</v>
@@ -1149,16 +1081,16 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>55342</v>
+        <v>47892</v>
       </c>
       <c r="C40">
-        <v>21532</v>
+        <v>48036</v>
       </c>
       <c r="D40">
-        <v>20288</v>
+        <v>26872</v>
       </c>
       <c r="E40">
         <v>19772</v>
@@ -1166,16 +1098,16 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>64300</v>
+        <v>55342</v>
       </c>
       <c r="C41">
-        <v>33824</v>
+        <v>55342</v>
       </c>
       <c r="D41">
-        <v>32612</v>
+        <v>20288</v>
       </c>
       <c r="E41">
         <v>32024</v>
@@ -1183,16 +1115,16 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B42">
-        <v>61354</v>
+        <v>64300</v>
       </c>
       <c r="C42">
-        <v>33358</v>
+        <v>64296</v>
       </c>
       <c r="D42">
-        <v>32646</v>
+        <v>32612</v>
       </c>
       <c r="E42">
         <v>32266</v>
@@ -1200,16 +1132,16 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>45138</v>
+        <v>61354</v>
       </c>
       <c r="C43">
-        <v>19148</v>
+        <v>61346</v>
       </c>
       <c r="D43">
-        <v>18444</v>
+        <v>32646</v>
       </c>
       <c r="E43">
         <v>18364</v>
@@ -1217,16 +1149,16 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>35544</v>
+        <v>45138</v>
       </c>
       <c r="C44">
-        <v>17668</v>
+        <v>45142</v>
       </c>
       <c r="D44">
-        <v>17048</v>
+        <v>18444</v>
       </c>
       <c r="E44">
         <v>16664</v>
@@ -1234,16 +1166,16 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B45">
-        <v>43624</v>
+        <v>35544</v>
       </c>
       <c r="C45">
-        <v>7182</v>
+        <v>35404</v>
       </c>
       <c r="D45">
-        <v>6678</v>
+        <v>17048</v>
       </c>
       <c r="E45">
         <v>6410</v>
@@ -1251,16 +1183,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>43042</v>
+        <v>43624</v>
       </c>
       <c r="C46">
-        <v>8346</v>
+        <v>43624</v>
       </c>
       <c r="D46">
-        <v>7986</v>
+        <v>6678</v>
       </c>
       <c r="E46">
         <v>7634</v>
@@ -1268,16 +1200,16 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="B47">
-        <v>43774</v>
+        <v>43042</v>
       </c>
       <c r="C47">
-        <v>6122</v>
+        <v>43042</v>
       </c>
       <c r="D47">
-        <v>5538</v>
+        <v>7986</v>
       </c>
       <c r="E47">
         <v>4830</v>
@@ -1285,16 +1217,16 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="B48">
-        <v>43442</v>
+        <v>43774</v>
       </c>
       <c r="C48">
-        <v>16366</v>
+        <v>43774</v>
       </c>
       <c r="D48">
-        <v>16138</v>
+        <v>5538</v>
       </c>
       <c r="E48">
         <v>16086</v>
@@ -1302,16 +1234,16 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="B49">
-        <v>37430</v>
+        <v>43672</v>
       </c>
       <c r="C49">
-        <v>11748</v>
+        <v>43660</v>
       </c>
       <c r="D49">
-        <v>11308</v>
+        <v>6352</v>
       </c>
       <c r="E49">
         <v>10896</v>
@@ -1319,16 +1251,16 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="B50">
-        <v>46190</v>
+        <v>43894</v>
       </c>
       <c r="C50">
-        <v>11816</v>
+        <v>43890</v>
       </c>
       <c r="D50">
-        <v>11528</v>
+        <v>5108</v>
       </c>
       <c r="E50">
         <v>11388</v>
@@ -1336,19 +1268,719 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="B51">
-        <v>40528</v>
+        <v>41880</v>
       </c>
       <c r="C51">
-        <v>6642</v>
+        <v>41880</v>
       </c>
       <c r="D51">
-        <v>6442</v>
+        <v>5454</v>
       </c>
       <c r="E51">
         <v>6194</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>54</v>
+      </c>
+      <c r="B52">
+        <v>43202</v>
+      </c>
+      <c r="C52">
+        <v>43194</v>
+      </c>
+      <c r="D52">
+        <v>6748</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>55</v>
+      </c>
+      <c r="B53">
+        <v>41430</v>
+      </c>
+      <c r="C53">
+        <v>41430</v>
+      </c>
+      <c r="D53">
+        <v>5804</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>56</v>
+      </c>
+      <c r="B54">
+        <v>44344</v>
+      </c>
+      <c r="C54">
+        <v>44344</v>
+      </c>
+      <c r="D54">
+        <v>7146</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>57</v>
+      </c>
+      <c r="B55">
+        <v>39580</v>
+      </c>
+      <c r="C55">
+        <v>39580</v>
+      </c>
+      <c r="D55">
+        <v>7504</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>58</v>
+      </c>
+      <c r="B56">
+        <v>42370</v>
+      </c>
+      <c r="C56">
+        <v>42370</v>
+      </c>
+      <c r="D56">
+        <v>11236</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>59</v>
+      </c>
+      <c r="B57">
+        <v>43820</v>
+      </c>
+      <c r="C57">
+        <v>43820</v>
+      </c>
+      <c r="D57">
+        <v>7854</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>6</v>
+      </c>
+      <c r="B58">
+        <v>43442</v>
+      </c>
+      <c r="C58">
+        <v>43442</v>
+      </c>
+      <c r="D58">
+        <v>16138</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>60</v>
+      </c>
+      <c r="B59">
+        <v>42996</v>
+      </c>
+      <c r="C59">
+        <v>42996</v>
+      </c>
+      <c r="D59">
+        <v>11364</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>61</v>
+      </c>
+      <c r="B60">
+        <v>32206</v>
+      </c>
+      <c r="C60">
+        <v>32206</v>
+      </c>
+      <c r="D60">
+        <v>22466</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>62</v>
+      </c>
+      <c r="B61">
+        <v>31696</v>
+      </c>
+      <c r="C61">
+        <v>31696</v>
+      </c>
+      <c r="D61">
+        <v>24328</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>63</v>
+      </c>
+      <c r="B62">
+        <v>37988</v>
+      </c>
+      <c r="C62">
+        <v>38012</v>
+      </c>
+      <c r="D62">
+        <v>10528</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>64</v>
+      </c>
+      <c r="B63">
+        <v>31936</v>
+      </c>
+      <c r="C63">
+        <v>32156</v>
+      </c>
+      <c r="D63">
+        <v>15776</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>65</v>
+      </c>
+      <c r="B64">
+        <v>28060</v>
+      </c>
+      <c r="C64">
+        <v>28568</v>
+      </c>
+      <c r="D64">
+        <v>38772</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>66</v>
+      </c>
+      <c r="B65">
+        <v>36198</v>
+      </c>
+      <c r="C65">
+        <v>36198</v>
+      </c>
+      <c r="D65">
+        <v>8230</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>67</v>
+      </c>
+      <c r="B66">
+        <v>45478</v>
+      </c>
+      <c r="C66">
+        <v>45482</v>
+      </c>
+      <c r="D66">
+        <v>13182</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>68</v>
+      </c>
+      <c r="B67">
+        <v>39432</v>
+      </c>
+      <c r="C67">
+        <v>39580</v>
+      </c>
+      <c r="D67">
+        <v>13722</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>69</v>
+      </c>
+      <c r="B68">
+        <v>39754</v>
+      </c>
+      <c r="C68">
+        <v>39754</v>
+      </c>
+      <c r="D68">
+        <v>6340</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>7</v>
+      </c>
+      <c r="B69">
+        <v>37430</v>
+      </c>
+      <c r="C69">
+        <v>37430</v>
+      </c>
+      <c r="D69">
+        <v>11308</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>70</v>
+      </c>
+      <c r="B70">
+        <v>41268</v>
+      </c>
+      <c r="C70">
+        <v>41268</v>
+      </c>
+      <c r="D70">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>71</v>
+      </c>
+      <c r="B71">
+        <v>42628</v>
+      </c>
+      <c r="C71">
+        <v>42628</v>
+      </c>
+      <c r="D71">
+        <v>3218</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>72</v>
+      </c>
+      <c r="B72">
+        <v>42274</v>
+      </c>
+      <c r="C72">
+        <v>42274</v>
+      </c>
+      <c r="D72">
+        <v>4238</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>73</v>
+      </c>
+      <c r="B73">
+        <v>43046</v>
+      </c>
+      <c r="C73">
+        <v>43046</v>
+      </c>
+      <c r="D73">
+        <v>3504</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>74</v>
+      </c>
+      <c r="B74">
+        <v>43824</v>
+      </c>
+      <c r="C74">
+        <v>43824</v>
+      </c>
+      <c r="D74">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>75</v>
+      </c>
+      <c r="B75">
+        <v>42556</v>
+      </c>
+      <c r="C75">
+        <v>42556</v>
+      </c>
+      <c r="D75">
+        <v>4750</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>76</v>
+      </c>
+      <c r="B76">
+        <v>43350</v>
+      </c>
+      <c r="C76">
+        <v>43354</v>
+      </c>
+      <c r="D76">
+        <v>9906</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>77</v>
+      </c>
+      <c r="B77">
+        <v>43068</v>
+      </c>
+      <c r="C77">
+        <v>43076</v>
+      </c>
+      <c r="D77">
+        <v>6820</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>78</v>
+      </c>
+      <c r="B78">
+        <v>43360</v>
+      </c>
+      <c r="C78">
+        <v>43360</v>
+      </c>
+      <c r="D78">
+        <v>7888</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>79</v>
+      </c>
+      <c r="B79">
+        <v>41874</v>
+      </c>
+      <c r="C79">
+        <v>41874</v>
+      </c>
+      <c r="D79">
+        <v>6638</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>8</v>
+      </c>
+      <c r="B80">
+        <v>46190</v>
+      </c>
+      <c r="C80">
+        <v>46190</v>
+      </c>
+      <c r="D80">
+        <v>11528</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>41366</v>
+      </c>
+      <c r="C81">
+        <v>41366</v>
+      </c>
+      <c r="D81">
+        <v>5276</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>45320</v>
+      </c>
+      <c r="C82">
+        <v>45320</v>
+      </c>
+      <c r="D82">
+        <v>13656</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>49088</v>
+      </c>
+      <c r="C83">
+        <v>49088</v>
+      </c>
+      <c r="D83">
+        <v>11514</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>33506</v>
+      </c>
+      <c r="C84">
+        <v>33958</v>
+      </c>
+      <c r="D84">
+        <v>23256</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>30120</v>
+      </c>
+      <c r="C85">
+        <v>30120</v>
+      </c>
+      <c r="D85">
+        <v>14118</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>41180</v>
+      </c>
+      <c r="C86">
+        <v>41180</v>
+      </c>
+      <c r="D86">
+        <v>5006</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>30796</v>
+      </c>
+      <c r="C87">
+        <v>31100</v>
+      </c>
+      <c r="D87">
+        <v>28648</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>41810</v>
+      </c>
+      <c r="C88">
+        <v>41810</v>
+      </c>
+      <c r="D88">
+        <v>9810</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>36110</v>
+      </c>
+      <c r="C89">
+        <v>36110</v>
+      </c>
+      <c r="D89">
+        <v>8462</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>35966</v>
+      </c>
+      <c r="C90">
+        <v>35962</v>
+      </c>
+      <c r="D90">
+        <v>9152</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>9</v>
+      </c>
+      <c r="B91">
+        <v>40528</v>
+      </c>
+      <c r="C91">
+        <v>40528</v>
+      </c>
+      <c r="D91">
+        <v>6442</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>44244</v>
+      </c>
+      <c r="C92">
+        <v>44244</v>
+      </c>
+      <c r="D92">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>42870</v>
+      </c>
+      <c r="C93">
+        <v>42870</v>
+      </c>
+      <c r="D93">
+        <v>5918</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>41420</v>
+      </c>
+      <c r="C94">
+        <v>41420</v>
+      </c>
+      <c r="D94">
+        <v>22364</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>45596</v>
+      </c>
+      <c r="C95">
+        <v>45596</v>
+      </c>
+      <c r="D95">
+        <v>11048</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>50130</v>
+      </c>
+      <c r="C96">
+        <v>50134</v>
+      </c>
+      <c r="D96">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>44170</v>
+      </c>
+      <c r="C97">
+        <v>44170</v>
+      </c>
+      <c r="D97">
+        <v>24328</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>48270</v>
+      </c>
+      <c r="C98">
+        <v>48270</v>
+      </c>
+      <c r="D98">
+        <v>12550</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>48820</v>
+      </c>
+      <c r="C99">
+        <v>48820</v>
+      </c>
+      <c r="D99">
+        <v>16518</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>43588</v>
+      </c>
+      <c r="C100">
+        <v>43588</v>
+      </c>
+      <c r="D100">
+        <v>8138</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>46194</v>
+      </c>
+      <c r="C101">
+        <v>46194</v>
+      </c>
+      <c r="D101">
+        <v>11732</v>
       </c>
     </row>
   </sheetData>

--- a/code/Hae.xlsx
+++ b/code/Hae.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\github\Digital_Watermarking-LSB-pair\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{14D371DA-D2F6-4B3D-A836-5324EDC86D10}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9C3D7FD0-C21F-446C-8968-E904E0B3D698}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20865" windowHeight="10590" xr2:uid="{C124BF73-661B-4716-ADFD-5926FEDD4A46}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20865" windowHeight="10590" xr2:uid="{09E8A164-1EE4-41C5-8386-583E26A68634}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,25 +25,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Image Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LSB</t>
+    <t>LSB_pair</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LSB-pair</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LSB-pair1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LSB-pair_new</t>
+    <t>LSB-pair-ultar</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -407,8 +399,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29E1C5AE-7E93-428E-85E2-91DCE29176D8}">
-  <dimension ref="A1:E101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50254466-2663-4403-96BB-A80C746C716B}">
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:D101"/>
@@ -416,7 +408,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -424,16 +416,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -441,16 +427,13 @@
         <v>47386</v>
       </c>
       <c r="C2">
-        <v>47386</v>
+        <v>14520</v>
       </c>
       <c r="D2">
-        <v>14520</v>
-      </c>
-      <c r="E2">
-        <v>14232</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43374</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10</v>
       </c>
@@ -458,16 +441,13 @@
         <v>44090</v>
       </c>
       <c r="C3">
-        <v>44086</v>
+        <v>5854</v>
       </c>
       <c r="D3">
-        <v>5854</v>
-      </c>
-      <c r="E3">
-        <v>5738</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>34970</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>100</v>
       </c>
@@ -475,16 +455,13 @@
         <v>47274</v>
       </c>
       <c r="C4">
-        <v>47274</v>
+        <v>8422</v>
       </c>
       <c r="D4">
-        <v>8422</v>
-      </c>
-      <c r="E4">
-        <v>16636</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>35690</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>11</v>
       </c>
@@ -492,16 +469,13 @@
         <v>47064</v>
       </c>
       <c r="C5">
-        <v>47064</v>
+        <v>17276</v>
       </c>
       <c r="D5">
-        <v>17276</v>
-      </c>
-      <c r="E5">
-        <v>8280</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>41284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>12</v>
       </c>
@@ -509,16 +483,13 @@
         <v>44152</v>
       </c>
       <c r="C6">
-        <v>44152</v>
+        <v>8652</v>
       </c>
       <c r="D6">
-        <v>8652</v>
-      </c>
-      <c r="E6">
-        <v>5478</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>39084</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>13</v>
       </c>
@@ -526,16 +497,13 @@
         <v>41396</v>
       </c>
       <c r="C7">
-        <v>41392</v>
+        <v>5914</v>
       </c>
       <c r="D7">
-        <v>5914</v>
-      </c>
-      <c r="E7">
-        <v>25704</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>29816</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>14</v>
       </c>
@@ -543,16 +511,13 @@
         <v>25276</v>
       </c>
       <c r="C8">
-        <v>25524</v>
+        <v>26112</v>
       </c>
       <c r="D8">
-        <v>26112</v>
-      </c>
-      <c r="E8">
-        <v>4416</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>19124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>15</v>
       </c>
@@ -560,16 +525,13 @@
         <v>42902</v>
       </c>
       <c r="C9">
-        <v>42902</v>
+        <v>4876</v>
       </c>
       <c r="D9">
-        <v>4876</v>
-      </c>
-      <c r="E9">
-        <v>8728</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>35550</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>16</v>
       </c>
@@ -577,16 +539,13 @@
         <v>41808</v>
       </c>
       <c r="C10">
-        <v>41808</v>
+        <v>9432</v>
       </c>
       <c r="D10">
-        <v>9432</v>
-      </c>
-      <c r="E10">
-        <v>21898</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>34556</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>17</v>
       </c>
@@ -594,16 +553,13 @@
         <v>52194</v>
       </c>
       <c r="C11">
-        <v>52194</v>
+        <v>22626</v>
       </c>
       <c r="D11">
-        <v>22626</v>
-      </c>
-      <c r="E11">
-        <v>17298</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>44094</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>18</v>
       </c>
@@ -611,16 +567,13 @@
         <v>55006</v>
       </c>
       <c r="C12">
-        <v>55006</v>
+        <v>17806</v>
       </c>
       <c r="D12">
-        <v>17806</v>
-      </c>
-      <c r="E12">
-        <v>10828</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>48750</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>19</v>
       </c>
@@ -628,16 +581,13 @@
         <v>48456</v>
       </c>
       <c r="C13">
-        <v>48456</v>
+        <v>11604</v>
       </c>
       <c r="D13">
-        <v>11604</v>
-      </c>
-      <c r="E13">
-        <v>42546</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>40696</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -645,16 +595,13 @@
         <v>27924</v>
       </c>
       <c r="C14">
-        <v>27996</v>
+        <v>42802</v>
       </c>
       <c r="D14">
-        <v>42802</v>
-      </c>
-      <c r="E14">
-        <v>23562</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>25256</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>20</v>
       </c>
@@ -662,16 +609,13 @@
         <v>21808</v>
       </c>
       <c r="C15">
-        <v>21788</v>
+        <v>23926</v>
       </c>
       <c r="D15">
-        <v>23926</v>
-      </c>
-      <c r="E15">
-        <v>6814</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>16144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>21</v>
       </c>
@@ -679,16 +623,13 @@
         <v>41820</v>
       </c>
       <c r="C16">
-        <v>41820</v>
+        <v>6970</v>
       </c>
       <c r="D16">
-        <v>6970</v>
-      </c>
-      <c r="E16">
-        <v>11238</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>35248</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>22</v>
       </c>
@@ -696,16 +637,13 @@
         <v>40198</v>
       </c>
       <c r="C17">
-        <v>40198</v>
+        <v>11262</v>
       </c>
       <c r="D17">
-        <v>11262</v>
-      </c>
-      <c r="E17">
-        <v>7522</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>33822</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>23</v>
       </c>
@@ -713,16 +651,13 @@
         <v>43164</v>
       </c>
       <c r="C18">
-        <v>43164</v>
+        <v>8682</v>
       </c>
       <c r="D18">
-        <v>8682</v>
-      </c>
-      <c r="E18">
-        <v>7734</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>34832</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>24</v>
       </c>
@@ -730,16 +665,13 @@
         <v>44764</v>
       </c>
       <c r="C19">
-        <v>44764</v>
+        <v>7702</v>
       </c>
       <c r="D19">
-        <v>7702</v>
-      </c>
-      <c r="E19">
-        <v>6538</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>36364</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>25</v>
       </c>
@@ -747,16 +679,13 @@
         <v>45152</v>
       </c>
       <c r="C20">
-        <v>45148</v>
+        <v>7318</v>
       </c>
       <c r="D20">
-        <v>7318</v>
-      </c>
-      <c r="E20">
-        <v>6062</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>38780</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>26</v>
       </c>
@@ -764,16 +693,13 @@
         <v>43024</v>
       </c>
       <c r="C21">
-        <v>43024</v>
+        <v>7178</v>
       </c>
       <c r="D21">
-        <v>7178</v>
-      </c>
-      <c r="E21">
-        <v>4722</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>33408</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>27</v>
       </c>
@@ -781,16 +707,13 @@
         <v>43842</v>
       </c>
       <c r="C22">
-        <v>43842</v>
+        <v>5486</v>
       </c>
       <c r="D22">
-        <v>5486</v>
-      </c>
-      <c r="E22">
-        <v>7694</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+        <v>34094</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>28</v>
       </c>
@@ -798,16 +721,13 @@
         <v>45848</v>
       </c>
       <c r="C23">
-        <v>45848</v>
+        <v>8358</v>
       </c>
       <c r="D23">
-        <v>8358</v>
-      </c>
-      <c r="E23">
-        <v>24232</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <v>38724</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>29</v>
       </c>
@@ -815,16 +735,13 @@
         <v>34162</v>
       </c>
       <c r="C24">
-        <v>34338</v>
+        <v>24796</v>
       </c>
       <c r="D24">
-        <v>24796</v>
-      </c>
-      <c r="E24">
-        <v>11196</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+        <v>27714</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3</v>
       </c>
@@ -832,16 +749,13 @@
         <v>42168</v>
       </c>
       <c r="C25">
-        <v>42168</v>
+        <v>11368</v>
       </c>
       <c r="D25">
-        <v>11368</v>
-      </c>
-      <c r="E25">
-        <v>6484</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>35648</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>30</v>
       </c>
@@ -849,16 +763,13 @@
         <v>43142</v>
       </c>
       <c r="C26">
-        <v>43142</v>
+        <v>6652</v>
       </c>
       <c r="D26">
-        <v>6652</v>
-      </c>
-      <c r="E26">
-        <v>4346</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+        <v>35190</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>31</v>
       </c>
@@ -866,16 +777,13 @@
         <v>42988</v>
       </c>
       <c r="C27">
-        <v>42988</v>
+        <v>5106</v>
       </c>
       <c r="D27">
-        <v>5106</v>
-      </c>
-      <c r="E27">
-        <v>7954</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+        <v>33784</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>32</v>
       </c>
@@ -883,16 +791,13 @@
         <v>44382</v>
       </c>
       <c r="C28">
-        <v>44382</v>
+        <v>8890</v>
       </c>
       <c r="D28">
-        <v>8890</v>
-      </c>
-      <c r="E28">
-        <v>17264</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+        <v>37142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>33</v>
       </c>
@@ -900,16 +805,13 @@
         <v>36372</v>
       </c>
       <c r="C29">
-        <v>36504</v>
+        <v>17772</v>
       </c>
       <c r="D29">
-        <v>17772</v>
-      </c>
-      <c r="E29">
-        <v>7378</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+        <v>29384</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>34</v>
       </c>
@@ -917,16 +819,13 @@
         <v>45382</v>
       </c>
       <c r="C30">
-        <v>45382</v>
+        <v>7674</v>
       </c>
       <c r="D30">
-        <v>7674</v>
-      </c>
-      <c r="E30">
-        <v>9542</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+        <v>32686</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>35</v>
       </c>
@@ -934,16 +833,13 @@
         <v>37270</v>
       </c>
       <c r="C31">
-        <v>37082</v>
+        <v>9742</v>
       </c>
       <c r="D31">
-        <v>9742</v>
-      </c>
-      <c r="E31">
-        <v>10474</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+        <v>26434</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>36</v>
       </c>
@@ -951,16 +847,13 @@
         <v>43858</v>
       </c>
       <c r="C32">
-        <v>43858</v>
+        <v>11318</v>
       </c>
       <c r="D32">
-        <v>11318</v>
-      </c>
-      <c r="E32">
-        <v>28630</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+        <v>37462</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>37</v>
       </c>
@@ -968,16 +861,13 @@
         <v>39150</v>
       </c>
       <c r="C33">
-        <v>39054</v>
+        <v>28866</v>
       </c>
       <c r="D33">
-        <v>28866</v>
-      </c>
-      <c r="E33">
-        <v>23706</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+        <v>35106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>38</v>
       </c>
@@ -985,16 +875,13 @@
         <v>47016</v>
       </c>
       <c r="C34">
-        <v>47016</v>
+        <v>24258</v>
       </c>
       <c r="D34">
-        <v>24258</v>
-      </c>
-      <c r="E34">
-        <v>24990</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43172</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>39</v>
       </c>
@@ -1002,16 +889,13 @@
         <v>20342</v>
       </c>
       <c r="C35">
-        <v>20330</v>
+        <v>25162</v>
       </c>
       <c r="D35">
-        <v>25162</v>
-      </c>
-      <c r="E35">
-        <v>41424</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+        <v>16634</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>4</v>
       </c>
@@ -1019,16 +903,13 @@
         <v>62634</v>
       </c>
       <c r="C36">
-        <v>62410</v>
+        <v>41408</v>
       </c>
       <c r="D36">
-        <v>41408</v>
-      </c>
-      <c r="E36">
-        <v>21542</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+        <v>61418</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>40</v>
       </c>
@@ -1036,16 +917,13 @@
         <v>54428</v>
       </c>
       <c r="C37">
-        <v>54428</v>
+        <v>21970</v>
       </c>
       <c r="D37">
-        <v>21970</v>
-      </c>
-      <c r="E37">
-        <v>13900</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+        <v>49780</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>41</v>
       </c>
@@ -1053,16 +931,13 @@
         <v>49324</v>
       </c>
       <c r="C38">
-        <v>49316</v>
+        <v>14556</v>
       </c>
       <c r="D38">
-        <v>14556</v>
-      </c>
-      <c r="E38">
-        <v>14898</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+        <v>45492</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>42</v>
       </c>
@@ -1070,16 +945,13 @@
         <v>44556</v>
       </c>
       <c r="C39">
-        <v>44556</v>
+        <v>15146</v>
       </c>
       <c r="D39">
-        <v>15146</v>
-      </c>
-      <c r="E39">
-        <v>25736</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+        <v>39392</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>43</v>
       </c>
@@ -1087,16 +959,13 @@
         <v>47892</v>
       </c>
       <c r="C40">
-        <v>48036</v>
+        <v>26872</v>
       </c>
       <c r="D40">
-        <v>26872</v>
-      </c>
-      <c r="E40">
-        <v>19772</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43520</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>44</v>
       </c>
@@ -1104,16 +973,13 @@
         <v>55342</v>
       </c>
       <c r="C41">
-        <v>55342</v>
+        <v>20288</v>
       </c>
       <c r="D41">
-        <v>20288</v>
-      </c>
-      <c r="E41">
-        <v>32024</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+        <v>50410</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>45</v>
       </c>
@@ -1121,16 +987,13 @@
         <v>64300</v>
       </c>
       <c r="C42">
-        <v>64296</v>
+        <v>32612</v>
       </c>
       <c r="D42">
-        <v>32612</v>
-      </c>
-      <c r="E42">
-        <v>32266</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+        <v>61844</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>46</v>
       </c>
@@ -1138,16 +1001,13 @@
         <v>61354</v>
       </c>
       <c r="C43">
-        <v>61346</v>
+        <v>32646</v>
       </c>
       <c r="D43">
-        <v>32646</v>
-      </c>
-      <c r="E43">
-        <v>18364</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+        <v>59266</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>47</v>
       </c>
@@ -1155,16 +1015,13 @@
         <v>45138</v>
       </c>
       <c r="C44">
-        <v>45142</v>
+        <v>18444</v>
       </c>
       <c r="D44">
-        <v>18444</v>
-      </c>
-      <c r="E44">
-        <v>16664</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+        <v>39614</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>48</v>
       </c>
@@ -1172,16 +1029,13 @@
         <v>35544</v>
       </c>
       <c r="C45">
-        <v>35404</v>
+        <v>17048</v>
       </c>
       <c r="D45">
-        <v>17048</v>
-      </c>
-      <c r="E45">
-        <v>6410</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+        <v>27544</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>49</v>
       </c>
@@ -1189,16 +1043,13 @@
         <v>43624</v>
       </c>
       <c r="C46">
-        <v>43624</v>
+        <v>6678</v>
       </c>
       <c r="D46">
-        <v>6678</v>
-      </c>
-      <c r="E46">
-        <v>7634</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+        <v>33592</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>5</v>
       </c>
@@ -1206,16 +1057,13 @@
         <v>43042</v>
       </c>
       <c r="C47">
-        <v>43042</v>
+        <v>7986</v>
       </c>
       <c r="D47">
-        <v>7986</v>
-      </c>
-      <c r="E47">
-        <v>4830</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+        <v>34618</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>50</v>
       </c>
@@ -1223,16 +1071,13 @@
         <v>43774</v>
       </c>
       <c r="C48">
-        <v>43774</v>
+        <v>5538</v>
       </c>
       <c r="D48">
-        <v>5538</v>
-      </c>
-      <c r="E48">
-        <v>16086</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+        <v>32334</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>51</v>
       </c>
@@ -1240,16 +1085,13 @@
         <v>43672</v>
       </c>
       <c r="C49">
-        <v>43660</v>
+        <v>6352</v>
       </c>
       <c r="D49">
-        <v>6352</v>
-      </c>
-      <c r="E49">
-        <v>10896</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+        <v>35360</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>52</v>
       </c>
@@ -1257,16 +1099,13 @@
         <v>43894</v>
       </c>
       <c r="C50">
-        <v>43890</v>
+        <v>5108</v>
       </c>
       <c r="D50">
-        <v>5108</v>
-      </c>
-      <c r="E50">
-        <v>11388</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+        <v>34546</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>53</v>
       </c>
@@ -1274,16 +1113,13 @@
         <v>41880</v>
       </c>
       <c r="C51">
-        <v>41880</v>
+        <v>5454</v>
       </c>
       <c r="D51">
-        <v>5454</v>
-      </c>
-      <c r="E51">
-        <v>6194</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+        <v>30096</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>54</v>
       </c>
@@ -1291,13 +1127,13 @@
         <v>43202</v>
       </c>
       <c r="C52">
-        <v>43194</v>
+        <v>6748</v>
       </c>
       <c r="D52">
-        <v>6748</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+        <v>31730</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>55</v>
       </c>
@@ -1305,13 +1141,13 @@
         <v>41430</v>
       </c>
       <c r="C53">
-        <v>41430</v>
+        <v>5804</v>
       </c>
       <c r="D53">
-        <v>5804</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+        <v>30650</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>56</v>
       </c>
@@ -1319,13 +1155,13 @@
         <v>44344</v>
       </c>
       <c r="C54">
-        <v>44344</v>
+        <v>7146</v>
       </c>
       <c r="D54">
-        <v>7146</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+        <v>37688</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>57</v>
       </c>
@@ -1333,13 +1169,13 @@
         <v>39580</v>
       </c>
       <c r="C55">
-        <v>39580</v>
+        <v>7504</v>
       </c>
       <c r="D55">
-        <v>7504</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+        <v>30724</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>58</v>
       </c>
@@ -1347,13 +1183,13 @@
         <v>42370</v>
       </c>
       <c r="C56">
-        <v>42370</v>
+        <v>11236</v>
       </c>
       <c r="D56">
-        <v>11236</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+        <v>35394</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>59</v>
       </c>
@@ -1361,13 +1197,13 @@
         <v>43820</v>
       </c>
       <c r="C57">
-        <v>43820</v>
+        <v>7854</v>
       </c>
       <c r="D57">
-        <v>7854</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+        <v>36652</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>6</v>
       </c>
@@ -1375,13 +1211,13 @@
         <v>43442</v>
       </c>
       <c r="C58">
-        <v>43442</v>
+        <v>16138</v>
       </c>
       <c r="D58">
-        <v>16138</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+        <v>40018</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>60</v>
       </c>
@@ -1389,13 +1225,13 @@
         <v>42996</v>
       </c>
       <c r="C59">
-        <v>42996</v>
+        <v>11364</v>
       </c>
       <c r="D59">
-        <v>11364</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+        <v>36460</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>61</v>
       </c>
@@ -1403,13 +1239,13 @@
         <v>32206</v>
       </c>
       <c r="C60">
-        <v>32206</v>
+        <v>22466</v>
       </c>
       <c r="D60">
-        <v>22466</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+        <v>26266</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>62</v>
       </c>
@@ -1417,13 +1253,13 @@
         <v>31696</v>
       </c>
       <c r="C61">
-        <v>31696</v>
+        <v>24328</v>
       </c>
       <c r="D61">
-        <v>24328</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+        <v>28192</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>63</v>
       </c>
@@ -1431,13 +1267,13 @@
         <v>37988</v>
       </c>
       <c r="C62">
-        <v>38012</v>
+        <v>10528</v>
       </c>
       <c r="D62">
-        <v>10528</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+        <v>27272</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>64</v>
       </c>
@@ -1445,13 +1281,13 @@
         <v>31936</v>
       </c>
       <c r="C63">
-        <v>32156</v>
+        <v>15776</v>
       </c>
       <c r="D63">
-        <v>15776</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+        <v>21624</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>65</v>
       </c>
@@ -1459,10 +1295,10 @@
         <v>28060</v>
       </c>
       <c r="C64">
-        <v>28568</v>
+        <v>38772</v>
       </c>
       <c r="D64">
-        <v>38772</v>
+        <v>24636</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -1473,10 +1309,10 @@
         <v>36198</v>
       </c>
       <c r="C65">
-        <v>36198</v>
+        <v>8230</v>
       </c>
       <c r="D65">
-        <v>8230</v>
+        <v>29606</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -1487,10 +1323,10 @@
         <v>45478</v>
       </c>
       <c r="C66">
-        <v>45482</v>
+        <v>13182</v>
       </c>
       <c r="D66">
-        <v>13182</v>
+        <v>40518</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -1501,10 +1337,10 @@
         <v>39432</v>
       </c>
       <c r="C67">
-        <v>39580</v>
+        <v>13722</v>
       </c>
       <c r="D67">
-        <v>13722</v>
+        <v>28988</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -1515,10 +1351,10 @@
         <v>39754</v>
       </c>
       <c r="C68">
-        <v>39754</v>
+        <v>6340</v>
       </c>
       <c r="D68">
-        <v>6340</v>
+        <v>28054</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -1529,10 +1365,10 @@
         <v>37430</v>
       </c>
       <c r="C69">
-        <v>37430</v>
+        <v>11308</v>
       </c>
       <c r="D69">
-        <v>11308</v>
+        <v>30866</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -1543,10 +1379,10 @@
         <v>41268</v>
       </c>
       <c r="C70">
-        <v>41268</v>
+        <v>6600</v>
       </c>
       <c r="D70">
-        <v>6600</v>
+        <v>28816</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -1557,10 +1393,10 @@
         <v>42628</v>
       </c>
       <c r="C71">
-        <v>42628</v>
+        <v>3218</v>
       </c>
       <c r="D71">
-        <v>3218</v>
+        <v>28800</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -1571,10 +1407,10 @@
         <v>42274</v>
       </c>
       <c r="C72">
-        <v>42274</v>
+        <v>4238</v>
       </c>
       <c r="D72">
-        <v>4238</v>
+        <v>29090</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -1585,10 +1421,10 @@
         <v>43046</v>
       </c>
       <c r="C73">
-        <v>43046</v>
+        <v>3504</v>
       </c>
       <c r="D73">
-        <v>3504</v>
+        <v>27890</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -1599,10 +1435,10 @@
         <v>43824</v>
       </c>
       <c r="C74">
-        <v>43824</v>
+        <v>4388</v>
       </c>
       <c r="D74">
-        <v>4388</v>
+        <v>30740</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -1613,10 +1449,10 @@
         <v>42556</v>
       </c>
       <c r="C75">
-        <v>42556</v>
+        <v>4750</v>
       </c>
       <c r="D75">
-        <v>4750</v>
+        <v>31272</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -1627,10 +1463,10 @@
         <v>43350</v>
       </c>
       <c r="C76">
-        <v>43354</v>
+        <v>9906</v>
       </c>
       <c r="D76">
-        <v>9906</v>
+        <v>33718</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -1641,10 +1477,10 @@
         <v>43068</v>
       </c>
       <c r="C77">
-        <v>43076</v>
+        <v>6820</v>
       </c>
       <c r="D77">
-        <v>6820</v>
+        <v>32200</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -1655,10 +1491,10 @@
         <v>43360</v>
       </c>
       <c r="C78">
-        <v>43360</v>
+        <v>7888</v>
       </c>
       <c r="D78">
-        <v>7888</v>
+        <v>32664</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -1669,10 +1505,10 @@
         <v>41874</v>
       </c>
       <c r="C79">
-        <v>41874</v>
+        <v>6638</v>
       </c>
       <c r="D79">
-        <v>6638</v>
+        <v>30678</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -1683,10 +1519,10 @@
         <v>46190</v>
       </c>
       <c r="C80">
-        <v>46190</v>
+        <v>11528</v>
       </c>
       <c r="D80">
-        <v>11528</v>
+        <v>40750</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -1697,10 +1533,10 @@
         <v>41366</v>
       </c>
       <c r="C81">
-        <v>41366</v>
+        <v>5276</v>
       </c>
       <c r="D81">
-        <v>5276</v>
+        <v>30330</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -1711,10 +1547,10 @@
         <v>45320</v>
       </c>
       <c r="C82">
-        <v>45320</v>
+        <v>13656</v>
       </c>
       <c r="D82">
-        <v>13656</v>
+        <v>39352</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -1725,10 +1561,10 @@
         <v>49088</v>
       </c>
       <c r="C83">
-        <v>49088</v>
+        <v>11514</v>
       </c>
       <c r="D83">
-        <v>11514</v>
+        <v>43188</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -1739,10 +1575,10 @@
         <v>33506</v>
       </c>
       <c r="C84">
-        <v>33958</v>
+        <v>23256</v>
       </c>
       <c r="D84">
-        <v>23256</v>
+        <v>25806</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -1753,10 +1589,10 @@
         <v>30120</v>
       </c>
       <c r="C85">
-        <v>30120</v>
+        <v>14118</v>
       </c>
       <c r="D85">
-        <v>14118</v>
+        <v>25352</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -1767,10 +1603,10 @@
         <v>41180</v>
       </c>
       <c r="C86">
-        <v>41180</v>
+        <v>5006</v>
       </c>
       <c r="D86">
-        <v>5006</v>
+        <v>34184</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -1781,10 +1617,10 @@
         <v>30796</v>
       </c>
       <c r="C87">
-        <v>31100</v>
+        <v>28648</v>
       </c>
       <c r="D87">
-        <v>28648</v>
+        <v>24940</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -1795,10 +1631,10 @@
         <v>41810</v>
       </c>
       <c r="C88">
-        <v>41810</v>
+        <v>9810</v>
       </c>
       <c r="D88">
-        <v>9810</v>
+        <v>32750</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -1809,10 +1645,10 @@
         <v>36110</v>
       </c>
       <c r="C89">
-        <v>36110</v>
+        <v>8462</v>
       </c>
       <c r="D89">
-        <v>8462</v>
+        <v>30090</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -1823,10 +1659,10 @@
         <v>35966</v>
       </c>
       <c r="C90">
-        <v>35962</v>
+        <v>9152</v>
       </c>
       <c r="D90">
-        <v>9152</v>
+        <v>28218</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -1837,10 +1673,10 @@
         <v>40528</v>
       </c>
       <c r="C91">
-        <v>40528</v>
+        <v>6442</v>
       </c>
       <c r="D91">
-        <v>6442</v>
+        <v>32140</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -1851,10 +1687,10 @@
         <v>44244</v>
       </c>
       <c r="C92">
-        <v>44244</v>
+        <v>6600</v>
       </c>
       <c r="D92">
-        <v>6600</v>
+        <v>37336</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -1865,10 +1701,10 @@
         <v>42870</v>
       </c>
       <c r="C93">
-        <v>42870</v>
+        <v>5918</v>
       </c>
       <c r="D93">
-        <v>5918</v>
+        <v>35218</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -1879,10 +1715,10 @@
         <v>41420</v>
       </c>
       <c r="C94">
-        <v>41420</v>
+        <v>22364</v>
       </c>
       <c r="D94">
-        <v>22364</v>
+        <v>35144</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -1893,10 +1729,10 @@
         <v>45596</v>
       </c>
       <c r="C95">
-        <v>45596</v>
+        <v>11048</v>
       </c>
       <c r="D95">
-        <v>11048</v>
+        <v>38328</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -1907,10 +1743,10 @@
         <v>50130</v>
       </c>
       <c r="C96">
-        <v>50134</v>
+        <v>16000</v>
       </c>
       <c r="D96">
-        <v>16000</v>
+        <v>43086</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -1921,10 +1757,10 @@
         <v>44170</v>
       </c>
       <c r="C97">
-        <v>44170</v>
+        <v>24328</v>
       </c>
       <c r="D97">
-        <v>24328</v>
+        <v>35662</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -1935,10 +1771,10 @@
         <v>48270</v>
       </c>
       <c r="C98">
-        <v>48270</v>
+        <v>12550</v>
       </c>
       <c r="D98">
-        <v>12550</v>
+        <v>40782</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -1949,10 +1785,10 @@
         <v>48820</v>
       </c>
       <c r="C99">
-        <v>48820</v>
+        <v>16518</v>
       </c>
       <c r="D99">
-        <v>16518</v>
+        <v>40840</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -1963,10 +1799,10 @@
         <v>43588</v>
       </c>
       <c r="C100">
-        <v>43588</v>
+        <v>8138</v>
       </c>
       <c r="D100">
-        <v>8138</v>
+        <v>36216</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -1977,10 +1813,10 @@
         <v>46194</v>
       </c>
       <c r="C101">
-        <v>46194</v>
+        <v>11732</v>
       </c>
       <c r="D101">
-        <v>11732</v>
+        <v>37166</v>
       </c>
     </row>
   </sheetData>

--- a/code/Hae.xlsx
+++ b/code/Hae.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\github\Digital_Watermarking-LSB-pair\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{C8DACF0A-3E02-470C-8D4E-A85C470E9914}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{93346523-FC9B-486C-939B-D30778313FCD}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20865" windowHeight="10590" xr2:uid="{805C2402-24A8-48E7-8056-38FCBFFD8019}"/>
   </bookViews>
@@ -505,133 +505,106 @@
         <v>47386</v>
       </c>
       <c r="D2">
-        <v>46390</v>
+        <v>47390</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>10</v>
-      </c>
       <c r="B3">
-        <v>44090</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>44086</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>42300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>100</v>
-      </c>
       <c r="B4">
-        <v>47274</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>47274</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>45976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>11</v>
-      </c>
       <c r="B5">
-        <v>47064</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>47064</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>44536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>12</v>
-      </c>
       <c r="B6">
-        <v>44152</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>44152</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>42264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>13</v>
-      </c>
       <c r="B7">
-        <v>41396</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>41392</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>39242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>14</v>
-      </c>
       <c r="B8">
-        <v>25276</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>25292</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>25240</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>15</v>
-      </c>
       <c r="B9">
-        <v>42902</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>42902</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>41938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>16</v>
-      </c>
       <c r="B10">
-        <v>41808</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>41808</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>40114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>17</v>
-      </c>
       <c r="B11">
-        <v>52194</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>52194</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>51618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">

--- a/code/Hae.xlsx
+++ b/code/Hae.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\github\Digital_Watermarking-LSB-pair\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{93346523-FC9B-486C-939B-D30778313FCD}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{345042DD-4E3D-4159-9CAF-1F2C8A44C8FB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20865" windowHeight="10590" xr2:uid="{805C2402-24A8-48E7-8056-38FCBFFD8019}"/>
   </bookViews>
@@ -509,1092 +509,1389 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>10</v>
+      </c>
       <c r="B3">
-        <v>0</v>
+        <v>44090</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>44086</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>44086</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>100</v>
+      </c>
       <c r="B4">
-        <v>0</v>
+        <v>47274</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>47274</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>47274</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>11</v>
+      </c>
       <c r="B5">
-        <v>0</v>
+        <v>47064</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>47064</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>47052</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>12</v>
+      </c>
       <c r="B6">
-        <v>0</v>
+        <v>44152</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>44152</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>44152</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>13</v>
+      </c>
       <c r="B7">
-        <v>0</v>
+        <v>41396</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>41392</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>41392</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>14</v>
+      </c>
       <c r="B8">
-        <v>0</v>
+        <v>25276</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>25292</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>25732</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>15</v>
+      </c>
       <c r="B9">
-        <v>0</v>
+        <v>42902</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>42902</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>42902</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>16</v>
+      </c>
       <c r="B10">
-        <v>0</v>
+        <v>41808</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>41808</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>41808</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>17</v>
+      </c>
       <c r="B11">
-        <v>0</v>
+        <v>52194</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>52194</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>52194</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>18</v>
+      </c>
       <c r="B12">
-        <v>0</v>
+        <v>55006</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>55006</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>55006</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>19</v>
+      </c>
       <c r="B13">
-        <v>0</v>
+        <v>48456</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>48456</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>48456</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2</v>
+      </c>
       <c r="B14">
-        <v>0</v>
+        <v>27924</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>27924</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>28096</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>20</v>
+      </c>
       <c r="B15">
-        <v>0</v>
+        <v>21808</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>21628</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>21816</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>21</v>
+      </c>
       <c r="B16">
-        <v>0</v>
+        <v>41820</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>41820</v>
       </c>
       <c r="D16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+        <v>41820</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>22</v>
+      </c>
       <c r="B17">
-        <v>0</v>
+        <v>40198</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>40198</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+        <v>40198</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>23</v>
+      </c>
       <c r="B18">
-        <v>0</v>
+        <v>43164</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>43164</v>
       </c>
       <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+        <v>43164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>24</v>
+      </c>
       <c r="B19">
-        <v>0</v>
+        <v>44764</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>44764</v>
       </c>
       <c r="D19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+        <v>44760</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>25</v>
+      </c>
       <c r="B20">
-        <v>0</v>
+        <v>45152</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>45148</v>
       </c>
       <c r="D20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+        <v>45148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>26</v>
+      </c>
       <c r="B21">
-        <v>0</v>
+        <v>43024</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>43024</v>
       </c>
       <c r="D21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+        <v>43024</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>27</v>
+      </c>
       <c r="B22">
-        <v>0</v>
+        <v>43842</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>43842</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+        <v>43842</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>28</v>
+      </c>
       <c r="B23">
-        <v>0</v>
+        <v>45848</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>45848</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+        <v>45848</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>29</v>
+      </c>
       <c r="B24">
-        <v>0</v>
+        <v>34162</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>34178</v>
       </c>
       <c r="D24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+        <v>34542</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>3</v>
+      </c>
       <c r="B25">
-        <v>0</v>
+        <v>42168</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>42168</v>
       </c>
       <c r="D25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+        <v>42168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>30</v>
+      </c>
       <c r="B26">
-        <v>0</v>
+        <v>43142</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>43142</v>
       </c>
       <c r="D26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+        <v>43142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>31</v>
+      </c>
       <c r="B27">
-        <v>0</v>
+        <v>42988</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>42988</v>
       </c>
       <c r="D27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+        <v>42992</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>32</v>
+      </c>
       <c r="B28">
-        <v>0</v>
+        <v>44382</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>44382</v>
       </c>
       <c r="D28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+        <v>44382</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>33</v>
+      </c>
       <c r="B29">
-        <v>0</v>
+        <v>36372</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>36372</v>
       </c>
       <c r="D29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+        <v>36656</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>34</v>
+      </c>
       <c r="B30">
-        <v>0</v>
+        <v>45382</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>45382</v>
       </c>
       <c r="D30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+        <v>45382</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>35</v>
+      </c>
       <c r="B31">
-        <v>0</v>
+        <v>37270</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>37258</v>
       </c>
       <c r="D31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+        <v>37090</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>36</v>
+      </c>
       <c r="B32">
-        <v>0</v>
+        <v>43858</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>43858</v>
       </c>
       <c r="D32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+        <v>43858</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>37</v>
+      </c>
       <c r="B33">
-        <v>0</v>
+        <v>39150</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>38842</v>
       </c>
       <c r="D33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+        <v>38898</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>38</v>
+      </c>
       <c r="B34">
-        <v>0</v>
+        <v>47016</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>47016</v>
       </c>
       <c r="D34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+        <v>47016</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>39</v>
+      </c>
       <c r="B35">
-        <v>0</v>
+        <v>20342</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>20090</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+        <v>19986</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>4</v>
+      </c>
       <c r="B36">
-        <v>0</v>
+        <v>62634</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>62314</v>
       </c>
       <c r="D36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+        <v>62098</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>40</v>
+      </c>
       <c r="B37">
-        <v>0</v>
+        <v>54428</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>54428</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+        <v>54428</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>41</v>
+      </c>
       <c r="B38">
-        <v>0</v>
+        <v>49324</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>49316</v>
       </c>
       <c r="D38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+        <v>49316</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>42</v>
+      </c>
       <c r="B39">
-        <v>0</v>
+        <v>44556</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>44556</v>
       </c>
       <c r="D39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+        <v>44560</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>43</v>
+      </c>
       <c r="B40">
-        <v>0</v>
+        <v>47892</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>47572</v>
       </c>
       <c r="D40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+        <v>47932</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>44</v>
+      </c>
       <c r="B41">
-        <v>0</v>
+        <v>55342</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>55342</v>
       </c>
       <c r="D41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+        <v>55342</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>45</v>
+      </c>
       <c r="B42">
-        <v>0</v>
+        <v>64300</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>64296</v>
       </c>
       <c r="D42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+        <v>64296</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>46</v>
+      </c>
       <c r="B43">
-        <v>0</v>
+        <v>61354</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>61350</v>
       </c>
       <c r="D43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+        <v>61342</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>47</v>
+      </c>
       <c r="B44">
-        <v>0</v>
+        <v>45138</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>45142</v>
       </c>
       <c r="D44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+        <v>45142</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>48</v>
+      </c>
       <c r="B45">
-        <v>0</v>
+        <v>35544</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>35396</v>
       </c>
       <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+        <v>35172</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>49</v>
+      </c>
       <c r="B46">
-        <v>0</v>
+        <v>43624</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>43624</v>
       </c>
       <c r="D46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+        <v>43624</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>5</v>
+      </c>
       <c r="B47">
-        <v>0</v>
+        <v>43042</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>43042</v>
       </c>
       <c r="D47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+        <v>43042</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>50</v>
+      </c>
       <c r="B48">
-        <v>0</v>
+        <v>43774</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>43774</v>
       </c>
       <c r="D48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+        <v>43774</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>51</v>
+      </c>
       <c r="B49">
-        <v>0</v>
+        <v>43672</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>43660</v>
       </c>
       <c r="D49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+        <v>43644</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>52</v>
+      </c>
       <c r="B50">
-        <v>0</v>
+        <v>43894</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>43890</v>
       </c>
       <c r="D50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+        <v>43878</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>53</v>
+      </c>
       <c r="B51">
-        <v>0</v>
+        <v>41880</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>41880</v>
       </c>
       <c r="D51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+        <v>41880</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>54</v>
+      </c>
       <c r="B52">
-        <v>0</v>
+        <v>43202</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>43198</v>
       </c>
       <c r="D52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+        <v>43182</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>55</v>
+      </c>
       <c r="B53">
-        <v>0</v>
+        <v>41430</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>41430</v>
       </c>
       <c r="D53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+        <v>41430</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>56</v>
+      </c>
       <c r="B54">
-        <v>0</v>
+        <v>44344</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>44344</v>
       </c>
       <c r="D54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+        <v>44344</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>57</v>
+      </c>
       <c r="B55">
-        <v>0</v>
+        <v>39580</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>39580</v>
       </c>
       <c r="D55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+        <v>39580</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>58</v>
+      </c>
       <c r="B56">
-        <v>0</v>
+        <v>42370</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>42370</v>
       </c>
       <c r="D56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+        <v>42370</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>59</v>
+      </c>
       <c r="B57">
-        <v>0</v>
+        <v>43820</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>43820</v>
       </c>
       <c r="D57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
+        <v>43820</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>6</v>
+      </c>
       <c r="B58">
-        <v>0</v>
+        <v>43442</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>43442</v>
       </c>
       <c r="D58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
+        <v>43442</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>60</v>
+      </c>
       <c r="B59">
-        <v>0</v>
+        <v>42996</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>42996</v>
       </c>
       <c r="D59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+        <v>42996</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>61</v>
+      </c>
       <c r="B60">
-        <v>0</v>
+        <v>32206</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>32206</v>
       </c>
       <c r="D60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
+        <v>32206</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>62</v>
+      </c>
       <c r="B61">
-        <v>0</v>
+        <v>31696</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>31696</v>
       </c>
       <c r="D61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
+        <v>31696</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>63</v>
+      </c>
       <c r="B62">
-        <v>0</v>
+        <v>37988</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>37820</v>
       </c>
       <c r="D62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
+        <v>37860</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>64</v>
+      </c>
       <c r="B63">
-        <v>0</v>
+        <v>31936</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>31952</v>
       </c>
       <c r="D63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
+        <v>32266</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>65</v>
+      </c>
       <c r="B64">
-        <v>0</v>
+        <v>28060</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>28060</v>
       </c>
       <c r="D64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+        <v>28810</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>66</v>
+      </c>
       <c r="B65">
-        <v>0</v>
+        <v>36198</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>36198</v>
       </c>
       <c r="D65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+        <v>36198</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>67</v>
+      </c>
       <c r="B66">
-        <v>0</v>
+        <v>45478</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>45482</v>
       </c>
       <c r="D66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>68</v>
+      </c>
       <c r="B67">
-        <v>0</v>
+        <v>39432</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>39432</v>
       </c>
       <c r="D67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+        <v>39634</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>69</v>
+      </c>
       <c r="B68">
-        <v>0</v>
+        <v>39754</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>39754</v>
       </c>
       <c r="D68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+        <v>39754</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>7</v>
+      </c>
       <c r="B69">
-        <v>0</v>
+        <v>37430</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>37430</v>
       </c>
       <c r="D69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+        <v>37430</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>70</v>
+      </c>
       <c r="B70">
-        <v>0</v>
+        <v>41268</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>41268</v>
       </c>
       <c r="D70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+        <v>41268</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>71</v>
+      </c>
       <c r="B71">
-        <v>0</v>
+        <v>42628</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>42628</v>
       </c>
       <c r="D71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+        <v>42628</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>72</v>
+      </c>
       <c r="B72">
-        <v>0</v>
+        <v>42274</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>42274</v>
       </c>
       <c r="D72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
+        <v>42274</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>73</v>
+      </c>
       <c r="B73">
-        <v>0</v>
+        <v>43046</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>43046</v>
       </c>
       <c r="D73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
+        <v>43046</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>74</v>
+      </c>
       <c r="B74">
-        <v>0</v>
+        <v>43824</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>43824</v>
       </c>
       <c r="D74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
+        <v>43824</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>75</v>
+      </c>
       <c r="B75">
-        <v>0</v>
+        <v>42556</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>42556</v>
       </c>
       <c r="D75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
+        <v>42556</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>76</v>
+      </c>
       <c r="B76">
-        <v>0</v>
+        <v>43350</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>43194</v>
       </c>
       <c r="D76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
+        <v>43212</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>77</v>
+      </c>
       <c r="B77">
-        <v>0</v>
+        <v>43068</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>43040</v>
       </c>
       <c r="D77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
+        <v>43100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>78</v>
+      </c>
       <c r="B78">
-        <v>0</v>
+        <v>43360</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>43360</v>
       </c>
       <c r="D78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
+        <v>43360</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>79</v>
+      </c>
       <c r="B79">
-        <v>0</v>
+        <v>41874</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>41874</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
+        <v>41874</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>8</v>
+      </c>
       <c r="B80">
-        <v>0</v>
+        <v>46190</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>46190</v>
       </c>
       <c r="D80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
+        <v>46190</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>80</v>
+      </c>
       <c r="B81">
-        <v>0</v>
+        <v>41366</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>41366</v>
       </c>
       <c r="D81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
+        <v>41366</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>81</v>
+      </c>
       <c r="B82">
-        <v>0</v>
+        <v>45320</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>45320</v>
       </c>
       <c r="D82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
+        <v>45320</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>82</v>
+      </c>
       <c r="B83">
-        <v>0</v>
+        <v>49088</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>49088</v>
       </c>
       <c r="D83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
+        <v>49092</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>83</v>
+      </c>
       <c r="B84">
-        <v>0</v>
+        <v>33506</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>33506</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
+        <v>33972</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>84</v>
+      </c>
       <c r="B85">
-        <v>0</v>
+        <v>30120</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>30120</v>
       </c>
       <c r="D85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
+        <v>30120</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>85</v>
+      </c>
       <c r="B86">
-        <v>0</v>
+        <v>41180</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>41180</v>
       </c>
       <c r="D86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
+        <v>41180</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>86</v>
+      </c>
       <c r="B87">
-        <v>0</v>
+        <v>30796</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>30796</v>
       </c>
       <c r="D87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
+        <v>31308</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>87</v>
+      </c>
       <c r="B88">
-        <v>0</v>
+        <v>41810</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>41810</v>
       </c>
       <c r="D88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
+        <v>41810</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>88</v>
+      </c>
       <c r="B89">
-        <v>0</v>
+        <v>36110</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>36110</v>
       </c>
       <c r="D89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
+        <v>36110</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>89</v>
+      </c>
       <c r="B90">
-        <v>0</v>
+        <v>35966</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>35962</v>
       </c>
       <c r="D90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
+        <v>35962</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>9</v>
+      </c>
       <c r="B91">
-        <v>0</v>
+        <v>40528</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>40528</v>
       </c>
       <c r="D91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
+        <v>40528</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>90</v>
+      </c>
       <c r="B92">
-        <v>0</v>
+        <v>44244</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>44244</v>
       </c>
       <c r="D92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
+        <v>44244</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>91</v>
+      </c>
       <c r="B93">
-        <v>0</v>
+        <v>42870</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>42870</v>
       </c>
       <c r="D93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
+        <v>42870</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>92</v>
+      </c>
       <c r="B94">
-        <v>0</v>
+        <v>41420</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>41420</v>
       </c>
       <c r="D94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
+        <v>41420</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>93</v>
+      </c>
       <c r="B95">
-        <v>0</v>
+        <v>45596</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>45596</v>
       </c>
       <c r="D95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
+        <v>45596</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>94</v>
+      </c>
       <c r="B96">
-        <v>0</v>
+        <v>50130</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>50130</v>
       </c>
       <c r="D96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
+        <v>50132</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>95</v>
+      </c>
       <c r="B97">
-        <v>0</v>
+        <v>44170</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>44170</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
+        <v>44170</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>96</v>
+      </c>
       <c r="B98">
-        <v>0</v>
+        <v>48270</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>48270</v>
       </c>
       <c r="D98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
+        <v>48270</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>97</v>
+      </c>
       <c r="B99">
-        <v>0</v>
+        <v>48820</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>48820</v>
       </c>
       <c r="D99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
+        <v>48820</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>98</v>
+      </c>
       <c r="B100">
-        <v>0</v>
+        <v>43588</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>43588</v>
       </c>
       <c r="D100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
+        <v>43588</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>99</v>
+      </c>
       <c r="B101">
-        <v>0</v>
+        <v>46194</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>46194</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>46194</v>
       </c>
     </row>
   </sheetData>

--- a/code/Hae.xlsx
+++ b/code/Hae.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\github\Digital_Watermarking-LSB-pair\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{345042DD-4E3D-4159-9CAF-1F2C8A44C8FB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1D8778AD-14AD-4375-BAFD-536D12B79169}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20865" windowHeight="10590" xr2:uid="{805C2402-24A8-48E7-8056-38FCBFFD8019}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20865" windowHeight="10590" xr2:uid="{017D823F-E3AC-4A34-BAAE-FC696E5CF8DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,19 +28,15 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Image Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LSB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LSB_pair</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LSB-pair-ultar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -96,74 +92,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -180,10 +108,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="004040"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="D1E2D6"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -471,7 +399,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5861B1C-90D8-4EB0-B5C3-23E5C250E282}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA56F22-BA17-4FB4-A728-DE487C1A6F9C}">
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -505,7 +433,7 @@
         <v>47386</v>
       </c>
       <c r="D2">
-        <v>47390</v>
+        <v>47386</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -519,7 +447,7 @@
         <v>44086</v>
       </c>
       <c r="D3">
-        <v>44086</v>
+        <v>44082</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -547,7 +475,7 @@
         <v>47064</v>
       </c>
       <c r="D5">
-        <v>47052</v>
+        <v>47064</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -589,7 +517,7 @@
         <v>25292</v>
       </c>
       <c r="D8">
-        <v>25732</v>
+        <v>25280</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -635,1263 +563,993 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>18</v>
-      </c>
       <c r="B12">
-        <v>55006</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>55006</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>55006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>19</v>
-      </c>
       <c r="B13">
-        <v>48456</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>48456</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>48456</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>2</v>
-      </c>
       <c r="B14">
-        <v>27924</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>27924</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>28096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>20</v>
-      </c>
       <c r="B15">
-        <v>21808</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>21628</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>21816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>21</v>
-      </c>
       <c r="B16">
-        <v>41820</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>41820</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>41820</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>22</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17">
-        <v>40198</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>40198</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>40198</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>23</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18">
-        <v>43164</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>43164</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>43164</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>24</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19">
-        <v>44764</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>44764</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>44760</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>25</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20">
-        <v>45152</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>45148</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>45148</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>26</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21">
-        <v>43024</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>43024</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>43024</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>27</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22">
-        <v>43842</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>43842</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>43842</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23">
-        <v>45848</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>45848</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>45848</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>29</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24">
-        <v>34162</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>34178</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>34542</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25">
-        <v>42168</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>42168</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>42168</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>30</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26">
-        <v>43142</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>43142</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>43142</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>31</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B27">
-        <v>42988</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>42988</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>42992</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>32</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B28">
-        <v>44382</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>44382</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>44382</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>33</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B29">
-        <v>36372</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>36372</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>36656</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>34</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B30">
-        <v>45382</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>45382</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>45382</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>35</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B31">
-        <v>37270</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>37258</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>37090</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>36</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B32">
-        <v>43858</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>43858</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>43858</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>37</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33">
-        <v>39150</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>38842</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>38898</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>38</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34">
-        <v>47016</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>47016</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>47016</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>39</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35">
-        <v>20342</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>20090</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>19986</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36">
-        <v>62634</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>62314</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>62098</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>40</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37">
-        <v>54428</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>54428</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>54428</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>41</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38">
-        <v>49324</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>49316</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>49316</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>42</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39">
-        <v>44556</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>44556</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>44560</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>43</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B40">
-        <v>47892</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>47572</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>47932</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>44</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B41">
-        <v>55342</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>55342</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>55342</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>45</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B42">
-        <v>64300</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>64296</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>64296</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>46</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B43">
-        <v>61354</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>61350</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>61342</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>47</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B44">
-        <v>45138</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>45142</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>45142</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>48</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B45">
-        <v>35544</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <v>35396</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>35172</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>49</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B46">
-        <v>43624</v>
+        <v>0</v>
       </c>
       <c r="C46">
-        <v>43624</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>43624</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B47">
-        <v>43042</v>
+        <v>0</v>
       </c>
       <c r="C47">
-        <v>43042</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>43042</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>50</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B48">
-        <v>43774</v>
+        <v>0</v>
       </c>
       <c r="C48">
-        <v>43774</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>43774</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>51</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49">
-        <v>43672</v>
+        <v>0</v>
       </c>
       <c r="C49">
-        <v>43660</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>43644</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>52</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B50">
-        <v>43894</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>43890</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>43878</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>53</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B51">
-        <v>41880</v>
+        <v>0</v>
       </c>
       <c r="C51">
-        <v>41880</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>41880</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>54</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B52">
-        <v>43202</v>
+        <v>0</v>
       </c>
       <c r="C52">
-        <v>43198</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>43182</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>55</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B53">
-        <v>41430</v>
+        <v>0</v>
       </c>
       <c r="C53">
-        <v>41430</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>41430</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>56</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B54">
-        <v>44344</v>
+        <v>0</v>
       </c>
       <c r="C54">
-        <v>44344</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>44344</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>57</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B55">
-        <v>39580</v>
+        <v>0</v>
       </c>
       <c r="C55">
-        <v>39580</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>39580</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>58</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B56">
-        <v>42370</v>
+        <v>0</v>
       </c>
       <c r="C56">
-        <v>42370</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>42370</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>59</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B57">
-        <v>43820</v>
+        <v>0</v>
       </c>
       <c r="C57">
-        <v>43820</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>43820</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>6</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B58">
-        <v>43442</v>
+        <v>0</v>
       </c>
       <c r="C58">
-        <v>43442</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>43442</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>60</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B59">
-        <v>42996</v>
+        <v>0</v>
       </c>
       <c r="C59">
-        <v>42996</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>42996</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>61</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B60">
-        <v>32206</v>
+        <v>0</v>
       </c>
       <c r="C60">
-        <v>32206</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>32206</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>62</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B61">
-        <v>31696</v>
+        <v>0</v>
       </c>
       <c r="C61">
-        <v>31696</v>
+        <v>0</v>
       </c>
       <c r="D61">
-        <v>31696</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>63</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B62">
-        <v>37988</v>
+        <v>0</v>
       </c>
       <c r="C62">
-        <v>37820</v>
+        <v>0</v>
       </c>
       <c r="D62">
-        <v>37860</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>64</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B63">
-        <v>31936</v>
+        <v>0</v>
       </c>
       <c r="C63">
-        <v>31952</v>
+        <v>0</v>
       </c>
       <c r="D63">
-        <v>32266</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>65</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B64">
-        <v>28060</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>28060</v>
+        <v>0</v>
       </c>
       <c r="D64">
-        <v>28810</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>66</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B65">
-        <v>36198</v>
+        <v>0</v>
       </c>
       <c r="C65">
-        <v>36198</v>
+        <v>0</v>
       </c>
       <c r="D65">
-        <v>36198</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>67</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B66">
-        <v>45478</v>
+        <v>0</v>
       </c>
       <c r="C66">
-        <v>45482</v>
+        <v>0</v>
       </c>
       <c r="D66">
-        <v>45486</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>68</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B67">
-        <v>39432</v>
+        <v>0</v>
       </c>
       <c r="C67">
-        <v>39432</v>
+        <v>0</v>
       </c>
       <c r="D67">
-        <v>39634</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>69</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B68">
-        <v>39754</v>
+        <v>0</v>
       </c>
       <c r="C68">
-        <v>39754</v>
+        <v>0</v>
       </c>
       <c r="D68">
-        <v>39754</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>7</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B69">
-        <v>37430</v>
+        <v>0</v>
       </c>
       <c r="C69">
-        <v>37430</v>
+        <v>0</v>
       </c>
       <c r="D69">
-        <v>37430</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>70</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B70">
-        <v>41268</v>
+        <v>0</v>
       </c>
       <c r="C70">
-        <v>41268</v>
+        <v>0</v>
       </c>
       <c r="D70">
-        <v>41268</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>71</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B71">
-        <v>42628</v>
+        <v>0</v>
       </c>
       <c r="C71">
-        <v>42628</v>
+        <v>0</v>
       </c>
       <c r="D71">
-        <v>42628</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>72</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B72">
-        <v>42274</v>
+        <v>0</v>
       </c>
       <c r="C72">
-        <v>42274</v>
+        <v>0</v>
       </c>
       <c r="D72">
-        <v>42274</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>73</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B73">
-        <v>43046</v>
+        <v>0</v>
       </c>
       <c r="C73">
-        <v>43046</v>
+        <v>0</v>
       </c>
       <c r="D73">
-        <v>43046</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>74</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B74">
-        <v>43824</v>
+        <v>0</v>
       </c>
       <c r="C74">
-        <v>43824</v>
+        <v>0</v>
       </c>
       <c r="D74">
-        <v>43824</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>75</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B75">
-        <v>42556</v>
+        <v>0</v>
       </c>
       <c r="C75">
-        <v>42556</v>
+        <v>0</v>
       </c>
       <c r="D75">
-        <v>42556</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>76</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B76">
-        <v>43350</v>
+        <v>0</v>
       </c>
       <c r="C76">
-        <v>43194</v>
+        <v>0</v>
       </c>
       <c r="D76">
-        <v>43212</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>77</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B77">
-        <v>43068</v>
+        <v>0</v>
       </c>
       <c r="C77">
-        <v>43040</v>
+        <v>0</v>
       </c>
       <c r="D77">
-        <v>43100</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>78</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B78">
-        <v>43360</v>
+        <v>0</v>
       </c>
       <c r="C78">
-        <v>43360</v>
+        <v>0</v>
       </c>
       <c r="D78">
-        <v>43360</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>79</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B79">
-        <v>41874</v>
+        <v>0</v>
       </c>
       <c r="C79">
-        <v>41874</v>
+        <v>0</v>
       </c>
       <c r="D79">
-        <v>41874</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>8</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B80">
-        <v>46190</v>
+        <v>0</v>
       </c>
       <c r="C80">
-        <v>46190</v>
+        <v>0</v>
       </c>
       <c r="D80">
-        <v>46190</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>80</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B81">
-        <v>41366</v>
+        <v>0</v>
       </c>
       <c r="C81">
-        <v>41366</v>
+        <v>0</v>
       </c>
       <c r="D81">
-        <v>41366</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>81</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B82">
-        <v>45320</v>
+        <v>0</v>
       </c>
       <c r="C82">
-        <v>45320</v>
+        <v>0</v>
       </c>
       <c r="D82">
-        <v>45320</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>82</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B83">
-        <v>49088</v>
+        <v>0</v>
       </c>
       <c r="C83">
-        <v>49088</v>
+        <v>0</v>
       </c>
       <c r="D83">
-        <v>49092</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>83</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B84">
-        <v>33506</v>
+        <v>0</v>
       </c>
       <c r="C84">
-        <v>33506</v>
+        <v>0</v>
       </c>
       <c r="D84">
-        <v>33972</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>84</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B85">
-        <v>30120</v>
+        <v>0</v>
       </c>
       <c r="C85">
-        <v>30120</v>
+        <v>0</v>
       </c>
       <c r="D85">
-        <v>30120</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>85</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B86">
-        <v>41180</v>
+        <v>0</v>
       </c>
       <c r="C86">
-        <v>41180</v>
+        <v>0</v>
       </c>
       <c r="D86">
-        <v>41180</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>86</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B87">
-        <v>30796</v>
+        <v>0</v>
       </c>
       <c r="C87">
-        <v>30796</v>
+        <v>0</v>
       </c>
       <c r="D87">
-        <v>31308</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>87</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B88">
-        <v>41810</v>
+        <v>0</v>
       </c>
       <c r="C88">
-        <v>41810</v>
+        <v>0</v>
       </c>
       <c r="D88">
-        <v>41810</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>88</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B89">
-        <v>36110</v>
+        <v>0</v>
       </c>
       <c r="C89">
-        <v>36110</v>
+        <v>0</v>
       </c>
       <c r="D89">
-        <v>36110</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>89</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B90">
-        <v>35966</v>
+        <v>0</v>
       </c>
       <c r="C90">
-        <v>35962</v>
+        <v>0</v>
       </c>
       <c r="D90">
-        <v>35962</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>9</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B91">
-        <v>40528</v>
+        <v>0</v>
       </c>
       <c r="C91">
-        <v>40528</v>
+        <v>0</v>
       </c>
       <c r="D91">
-        <v>40528</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>90</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B92">
-        <v>44244</v>
+        <v>0</v>
       </c>
       <c r="C92">
-        <v>44244</v>
+        <v>0</v>
       </c>
       <c r="D92">
-        <v>44244</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>91</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B93">
-        <v>42870</v>
+        <v>0</v>
       </c>
       <c r="C93">
-        <v>42870</v>
+        <v>0</v>
       </c>
       <c r="D93">
-        <v>42870</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>92</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B94">
-        <v>41420</v>
+        <v>0</v>
       </c>
       <c r="C94">
-        <v>41420</v>
+        <v>0</v>
       </c>
       <c r="D94">
-        <v>41420</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>93</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B95">
-        <v>45596</v>
+        <v>0</v>
       </c>
       <c r="C95">
-        <v>45596</v>
+        <v>0</v>
       </c>
       <c r="D95">
-        <v>45596</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>94</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B96">
-        <v>50130</v>
+        <v>0</v>
       </c>
       <c r="C96">
-        <v>50130</v>
+        <v>0</v>
       </c>
       <c r="D96">
-        <v>50132</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>95</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B97">
-        <v>44170</v>
+        <v>0</v>
       </c>
       <c r="C97">
-        <v>44170</v>
+        <v>0</v>
       </c>
       <c r="D97">
-        <v>44170</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>96</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B98">
-        <v>48270</v>
+        <v>0</v>
       </c>
       <c r="C98">
-        <v>48270</v>
+        <v>0</v>
       </c>
       <c r="D98">
-        <v>48270</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>97</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B99">
-        <v>48820</v>
+        <v>0</v>
       </c>
       <c r="C99">
-        <v>48820</v>
+        <v>0</v>
       </c>
       <c r="D99">
-        <v>48820</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>98</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B100">
-        <v>43588</v>
+        <v>0</v>
       </c>
       <c r="C100">
-        <v>43588</v>
+        <v>0</v>
       </c>
       <c r="D100">
-        <v>43588</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>99</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B101">
-        <v>46194</v>
+        <v>0</v>
       </c>
       <c r="C101">
-        <v>46194</v>
+        <v>0</v>
       </c>
       <c r="D101">
-        <v>46194</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/code/Hae.xlsx
+++ b/code/Hae.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\github\Digital_Watermarking-LSB-pair\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1D8778AD-14AD-4375-BAFD-536D12B79169}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{06E6CF13-2740-426D-BFC1-51F14ABD8E71}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20865" windowHeight="10590" xr2:uid="{017D823F-E3AC-4A34-BAAE-FC696E5CF8DD}"/>
   </bookViews>
@@ -28,15 +28,19 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Image Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LSB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LSB_pair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LSB-pair-ultar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -433,7 +437,7 @@
         <v>47386</v>
       </c>
       <c r="D2">
-        <v>47386</v>
+        <v>47390</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -447,7 +451,7 @@
         <v>44086</v>
       </c>
       <c r="D3">
-        <v>44082</v>
+        <v>44086</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -475,7 +479,7 @@
         <v>47064</v>
       </c>
       <c r="D5">
-        <v>47064</v>
+        <v>47052</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -517,7 +521,7 @@
         <v>25292</v>
       </c>
       <c r="D8">
-        <v>25280</v>
+        <v>25732</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">

--- a/code/Hae.xlsx
+++ b/code/Hae.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\github\Digital_Watermarking-LSB-pair\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{06E6CF13-2740-426D-BFC1-51F14ABD8E71}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{42DEB542-7B92-4C8F-BC57-D0A222C7F809}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20865" windowHeight="10590" xr2:uid="{017D823F-E3AC-4A34-BAAE-FC696E5CF8DD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Image Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,7 +39,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LSB-pair-ultar</t>
+    <t>LSB_pair_dual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSB_pair_triple</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -404,15 +408,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA56F22-BA17-4FB4-A728-DE487C1A6F9C}">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D101"/>
+      <selection activeCell="B2" sqref="B2:E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -425,8 +429,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -437,10 +444,13 @@
         <v>47386</v>
       </c>
       <c r="D2">
-        <v>47390</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>47386</v>
+      </c>
+      <c r="E2">
+        <v>47386</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10</v>
       </c>
@@ -453,8 +463,11 @@
       <c r="D3">
         <v>44086</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>100</v>
       </c>
@@ -467,8 +480,11 @@
       <c r="D4">
         <v>47274</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <v>47274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>11</v>
       </c>
@@ -479,10 +495,13 @@
         <v>47064</v>
       </c>
       <c r="D5">
-        <v>47052</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>47064</v>
+      </c>
+      <c r="E5">
+        <v>47064</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>12</v>
       </c>
@@ -495,8 +514,11 @@
       <c r="D6">
         <v>44152</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>44152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>13</v>
       </c>
@@ -509,8 +531,11 @@
       <c r="D7">
         <v>41392</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>41392</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>14</v>
       </c>
@@ -521,10 +546,13 @@
         <v>25292</v>
       </c>
       <c r="D8">
-        <v>25732</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>25292</v>
+      </c>
+      <c r="E8">
+        <v>25292</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>15</v>
       </c>
@@ -537,8 +565,11 @@
       <c r="D9">
         <v>42902</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <v>42902</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>16</v>
       </c>
@@ -551,8 +582,11 @@
       <c r="D10">
         <v>41808</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <v>41808</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>17</v>
       </c>
@@ -565,8 +599,11 @@
       <c r="D11">
         <v>52194</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <v>52194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>0</v>
       </c>
@@ -576,8 +613,11 @@
       <c r="D12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>0</v>
       </c>
@@ -587,8 +627,11 @@
       <c r="D13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>0</v>
       </c>
@@ -598,8 +641,11 @@
       <c r="D14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>0</v>
       </c>
@@ -609,8 +655,11 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>0</v>
       </c>
@@ -620,8 +669,11 @@
       <c r="D16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>0</v>
       </c>
@@ -631,8 +683,11 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>0</v>
       </c>
@@ -642,8 +697,11 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>0</v>
       </c>
@@ -653,8 +711,11 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>0</v>
       </c>
@@ -664,8 +725,11 @@
       <c r="D20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>0</v>
       </c>
@@ -675,8 +739,11 @@
       <c r="D21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>0</v>
       </c>
@@ -686,8 +753,11 @@
       <c r="D22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>0</v>
       </c>
@@ -697,8 +767,11 @@
       <c r="D23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>0</v>
       </c>
@@ -708,8 +781,11 @@
       <c r="D24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>0</v>
       </c>
@@ -719,8 +795,11 @@
       <c r="D25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>0</v>
       </c>
@@ -730,8 +809,11 @@
       <c r="D26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>0</v>
       </c>
@@ -741,8 +823,11 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>0</v>
       </c>
@@ -752,8 +837,11 @@
       <c r="D28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>0</v>
       </c>
@@ -763,8 +851,11 @@
       <c r="D29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>0</v>
       </c>
@@ -774,8 +865,11 @@
       <c r="D30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>0</v>
       </c>
@@ -785,8 +879,11 @@
       <c r="D31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>0</v>
       </c>
@@ -796,8 +893,11 @@
       <c r="D32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>0</v>
       </c>
@@ -807,8 +907,11 @@
       <c r="D33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>0</v>
       </c>
@@ -818,8 +921,11 @@
       <c r="D34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>0</v>
       </c>
@@ -829,8 +935,11 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>0</v>
       </c>
@@ -840,8 +949,11 @@
       <c r="D36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>0</v>
       </c>
@@ -851,8 +963,11 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>0</v>
       </c>
@@ -862,8 +977,11 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39">
         <v>0</v>
       </c>
@@ -873,8 +991,11 @@
       <c r="D39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>0</v>
       </c>
@@ -884,8 +1005,11 @@
       <c r="D40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41">
         <v>0</v>
       </c>
@@ -895,8 +1019,11 @@
       <c r="D41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42">
         <v>0</v>
       </c>
@@ -906,8 +1033,11 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>0</v>
       </c>
@@ -917,8 +1047,11 @@
       <c r="D43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>0</v>
       </c>
@@ -928,8 +1061,11 @@
       <c r="D44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45">
         <v>0</v>
       </c>
@@ -939,8 +1075,11 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46">
         <v>0</v>
       </c>
@@ -950,8 +1089,11 @@
       <c r="D46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47">
         <v>0</v>
       </c>
@@ -961,8 +1103,11 @@
       <c r="D47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48">
         <v>0</v>
       </c>
@@ -972,8 +1117,11 @@
       <c r="D48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49">
         <v>0</v>
       </c>
@@ -983,8 +1131,11 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50">
         <v>0</v>
       </c>
@@ -994,8 +1145,11 @@
       <c r="D50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51">
         <v>0</v>
       </c>
@@ -1005,8 +1159,11 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52">
         <v>0</v>
       </c>
@@ -1016,8 +1173,11 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53">
         <v>0</v>
       </c>
@@ -1027,8 +1187,11 @@
       <c r="D53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54">
         <v>0</v>
       </c>
@@ -1038,8 +1201,11 @@
       <c r="D54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55">
         <v>0</v>
       </c>
@@ -1049,8 +1215,11 @@
       <c r="D55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56">
         <v>0</v>
       </c>
@@ -1060,8 +1229,11 @@
       <c r="D56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57">
         <v>0</v>
       </c>
@@ -1071,8 +1243,11 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58">
         <v>0</v>
       </c>
@@ -1082,8 +1257,11 @@
       <c r="D58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59">
         <v>0</v>
       </c>
@@ -1093,8 +1271,11 @@
       <c r="D59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60">
         <v>0</v>
       </c>
@@ -1104,8 +1285,11 @@
       <c r="D60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B61">
         <v>0</v>
       </c>
@@ -1115,8 +1299,11 @@
       <c r="D61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62">
         <v>0</v>
       </c>
@@ -1126,8 +1313,11 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B63">
         <v>0</v>
       </c>
@@ -1137,8 +1327,11 @@
       <c r="D63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64">
         <v>0</v>
       </c>
@@ -1148,8 +1341,11 @@
       <c r="D64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65">
         <v>0</v>
       </c>
@@ -1159,8 +1355,11 @@
       <c r="D65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66">
         <v>0</v>
       </c>
@@ -1170,8 +1369,11 @@
       <c r="D66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67">
         <v>0</v>
       </c>
@@ -1181,8 +1383,11 @@
       <c r="D67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68">
         <v>0</v>
       </c>
@@ -1192,8 +1397,11 @@
       <c r="D68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69">
         <v>0</v>
       </c>
@@ -1203,8 +1411,11 @@
       <c r="D69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70">
         <v>0</v>
       </c>
@@ -1214,8 +1425,11 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71">
         <v>0</v>
       </c>
@@ -1225,8 +1439,11 @@
       <c r="D71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B72">
         <v>0</v>
       </c>
@@ -1236,8 +1453,11 @@
       <c r="D72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B73">
         <v>0</v>
       </c>
@@ -1247,8 +1467,11 @@
       <c r="D73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B74">
         <v>0</v>
       </c>
@@ -1258,8 +1481,11 @@
       <c r="D74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B75">
         <v>0</v>
       </c>
@@ -1269,8 +1495,11 @@
       <c r="D75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B76">
         <v>0</v>
       </c>
@@ -1280,8 +1509,11 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B77">
         <v>0</v>
       </c>
@@ -1291,8 +1523,11 @@
       <c r="D77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B78">
         <v>0</v>
       </c>
@@ -1302,8 +1537,11 @@
       <c r="D78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B79">
         <v>0</v>
       </c>
@@ -1313,8 +1551,11 @@
       <c r="D79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B80">
         <v>0</v>
       </c>
@@ -1324,8 +1565,11 @@
       <c r="D80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B81">
         <v>0</v>
       </c>
@@ -1335,8 +1579,11 @@
       <c r="D81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B82">
         <v>0</v>
       </c>
@@ -1346,8 +1593,11 @@
       <c r="D82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B83">
         <v>0</v>
       </c>
@@ -1357,8 +1607,11 @@
       <c r="D83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84">
         <v>0</v>
       </c>
@@ -1368,8 +1621,11 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B85">
         <v>0</v>
       </c>
@@ -1379,8 +1635,11 @@
       <c r="D85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B86">
         <v>0</v>
       </c>
@@ -1390,8 +1649,11 @@
       <c r="D86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B87">
         <v>0</v>
       </c>
@@ -1401,8 +1663,11 @@
       <c r="D87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B88">
         <v>0</v>
       </c>
@@ -1412,8 +1677,11 @@
       <c r="D88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B89">
         <v>0</v>
       </c>
@@ -1423,8 +1691,11 @@
       <c r="D89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B90">
         <v>0</v>
       </c>
@@ -1434,8 +1705,11 @@
       <c r="D90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B91">
         <v>0</v>
       </c>
@@ -1445,8 +1719,11 @@
       <c r="D91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B92">
         <v>0</v>
       </c>
@@ -1456,8 +1733,11 @@
       <c r="D92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B93">
         <v>0</v>
       </c>
@@ -1467,8 +1747,11 @@
       <c r="D93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B94">
         <v>0</v>
       </c>
@@ -1478,8 +1761,11 @@
       <c r="D94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B95">
         <v>0</v>
       </c>
@@ -1489,8 +1775,11 @@
       <c r="D95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B96">
         <v>0</v>
       </c>
@@ -1500,8 +1789,11 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B97">
         <v>0</v>
       </c>
@@ -1511,8 +1803,11 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B98">
         <v>0</v>
       </c>
@@ -1522,8 +1817,11 @@
       <c r="D98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B99">
         <v>0</v>
       </c>
@@ -1533,8 +1831,11 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B100">
         <v>0</v>
       </c>
@@ -1544,8 +1845,11 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B101">
         <v>0</v>
       </c>
@@ -1553,6 +1857,9 @@
         <v>0</v>
       </c>
       <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
         <v>0</v>
       </c>
     </row>
